--- a/pandas/sajat_projekt/foods_tablazat_egyszeru.xlsx
+++ b/pandas/sajat_projekt/foods_tablazat_egyszeru.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_kidob\_kidob\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87EEFF60-1490-42A7-9745-34807017DB60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{529C11C7-6C88-4A49-A07E-B4ADBD3B7A14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
   <si>
     <t>kcal_per_100g</t>
   </si>
@@ -52,58 +52,124 @@
     <t>zsemle, zsömle, kifli</t>
   </si>
   <si>
-    <t>kenyer, kenyér, barna kenyer, feher kenyer</t>
-  </si>
-  <si>
     <t>teljes kiorlesu kenyer, teljeskiörlésű kenyér</t>
   </si>
   <si>
     <t>sonka, pulykasonka, csirkesonka</t>
   </si>
   <si>
-    <t>felvagott, felvágott, szalami, szalámi, kolbasz, kolbász</t>
-  </si>
-  <si>
     <t>sajt, trappista, trappista sajt</t>
   </si>
   <si>
-    <t>tojas, tojás</t>
-  </si>
-  <si>
-    <t>olivaolaj, olívaolaj</t>
-  </si>
-  <si>
     <t>tej</t>
   </si>
   <si>
     <t>joghurt, natúr joghurt</t>
   </si>
   <si>
-    <t>turo, túró</t>
-  </si>
-  <si>
-    <t>rizs, fott rizs, főtt rizs</t>
-  </si>
-  <si>
-    <t>teszta, tészta, fott teszta, főtt tészta</t>
-  </si>
-  <si>
-    <t>krumplipure, krumplipüré, burgonyapure, burgonyapüré</t>
-  </si>
-  <si>
-    <t>banan, banán</t>
-  </si>
-  <si>
-    <t>kakaos csiga, kakaós csiga</t>
-  </si>
-  <si>
     <t>food</t>
   </si>
   <si>
-    <t>fott krumpli, főtt krumpli, burgonya,</t>
-  </si>
-  <si>
-    <t>csirkemell, sult csirkemell, sült csirkemell, csirke mell,</t>
+    <t>kenyér, barna kenyer, feher kenyer</t>
+  </si>
+  <si>
+    <t>csirkemell,  sült csirkemell, csirke mell,</t>
+  </si>
+  <si>
+    <t>túró</t>
+  </si>
+  <si>
+    <t>rizs,  főtt rizs</t>
+  </si>
+  <si>
+    <t>banán</t>
+  </si>
+  <si>
+    <t>olívaolaj</t>
+  </si>
+  <si>
+    <t>tepertő, töpörtyű</t>
+  </si>
+  <si>
+    <t>szalonna</t>
+  </si>
+  <si>
+    <t>bulgur</t>
+  </si>
+  <si>
+    <t>tejföl</t>
+  </si>
+  <si>
+    <t>joghurt, natúr joghurt, kefír</t>
+  </si>
+  <si>
+    <t>csokoládé , nutella</t>
+  </si>
+  <si>
+    <t>kukorica</t>
+  </si>
+  <si>
+    <t>sör</t>
+  </si>
+  <si>
+    <t>bor</t>
+  </si>
+  <si>
+    <t>pálinka</t>
+  </si>
+  <si>
+    <t>kóla, cola</t>
+  </si>
+  <si>
+    <t>zab, zabkása</t>
+  </si>
+  <si>
+    <t>avokádó</t>
+  </si>
+  <si>
+    <t>répa , hagyma</t>
+  </si>
+  <si>
+    <t>csicseriborsó</t>
+  </si>
+  <si>
+    <t>hal, halkonzerv</t>
+  </si>
+  <si>
+    <t>ponty, harcsa, keszeg</t>
+  </si>
+  <si>
+    <t>kesudió</t>
+  </si>
+  <si>
+    <t>mogyoró, földimogyoró, dió, napraforgómag,  szotyola</t>
+  </si>
+  <si>
+    <t>szőlő</t>
+  </si>
+  <si>
+    <t>dinnye</t>
+  </si>
+  <si>
+    <t>szilva, barack</t>
+  </si>
+  <si>
+    <t>felvágott,  szalámi,  kolbász</t>
+  </si>
+  <si>
+    <t>főtt krumpli, burgonya, krumpli</t>
+  </si>
+  <si>
+    <t>kakaós csiga</t>
+  </si>
+  <si>
+    <t>krumplipüré,  burgonyapüré</t>
+  </si>
+  <si>
+    <t>tészta, főtt tészta</t>
+  </si>
+  <si>
+    <t>tojás</t>
   </si>
 </sst>
 </file>
@@ -471,10 +537,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B27"/>
+  <dimension ref="A1:B49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -485,7 +551,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -493,213 +559,392 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="B2">
-        <v>270</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="B3">
-        <v>250</v>
+        <v>160</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="B4">
-        <v>240</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="B5">
-        <v>120</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="B6">
-        <v>220</v>
+        <v>340</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B7">
-        <v>350</v>
+        <v>400</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="B8">
-        <v>165</v>
+        <v>360</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B9">
-        <v>155</v>
+        <v>165</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="B10">
-        <v>720</v>
+        <v>550</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="B11">
-        <v>884</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="B12">
-        <v>50</v>
+        <v>220</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="B13">
-        <v>60</v>
+        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="B14">
-        <v>150</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="B15">
-        <v>130</v>
+        <v>180</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>155</v>
+        <v>60</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B17">
-        <v>110</v>
+        <v>70</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="B18">
-        <v>87</v>
+        <v>410</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="B19">
-        <v>52</v>
+        <v>250</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="B20">
-        <v>89</v>
+        <v>550</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="B21">
-        <v>18</v>
+        <v>42</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>4</v>
+        <v>47</v>
       </c>
       <c r="B22">
-        <v>15</v>
+        <v>110</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="B23">
-        <v>31</v>
+        <v>100</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="B24">
-        <v>40</v>
+        <v>600</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="B25">
-        <v>400</v>
+        <v>884</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="B26">
-        <v>410</v>
+        <v>220</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="B27">
-        <v>220</v>
+        <v>230</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>5</v>
+      </c>
+      <c r="B28">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>3</v>
+      </c>
+      <c r="B29">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>38</v>
+      </c>
+      <c r="B30">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>35</v>
+      </c>
+      <c r="B31">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>19</v>
+      </c>
+      <c r="B32">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>12</v>
+      </c>
+      <c r="B33">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>11</v>
+      </c>
+      <c r="B34">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>29</v>
+      </c>
+      <c r="B35">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>23</v>
+      </c>
+      <c r="B36">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>43</v>
+      </c>
+      <c r="B37">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>41</v>
+      </c>
+      <c r="B38">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>13</v>
+      </c>
+      <c r="B39">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>25</v>
+      </c>
+      <c r="B40">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>10</v>
+      </c>
+      <c r="B41">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>22</v>
+      </c>
+      <c r="B42">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>48</v>
+      </c>
+      <c r="B43">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>49</v>
+      </c>
+      <c r="B44">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>18</v>
+      </c>
+      <c r="B45">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>4</v>
+      </c>
+      <c r="B46">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>1</v>
+      </c>
+      <c r="B47">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
+        <v>33</v>
+      </c>
+      <c r="B48">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>9</v>
+      </c>
+      <c r="B49">
+        <v>270</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B49">
+    <sortCondition ref="A2:A49"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/pandas/sajat_projekt/foods_tablazat_egyszeru.xlsx
+++ b/pandas/sajat_projekt/foods_tablazat_egyszeru.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_kidob\_kidob\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{529C11C7-6C88-4A49-A07E-B4ADBD3B7A14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C172278-4979-4FE2-A2A9-DDBAB9B23D3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -64,9 +64,6 @@
     <t>tej</t>
   </si>
   <si>
-    <t>joghurt, natúr joghurt</t>
-  </si>
-  <si>
     <t>food</t>
   </si>
   <si>
@@ -170,6 +167,9 @@
   </si>
   <si>
     <t>tojás</t>
+  </si>
+  <si>
+    <t>saláta</t>
   </si>
 </sst>
 </file>
@@ -539,8 +539,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B50" sqref="B50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -551,7 +551,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -567,7 +567,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B3">
         <v>160</v>
@@ -575,7 +575,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B4">
         <v>89</v>
@@ -583,7 +583,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B5">
         <v>75</v>
@@ -591,7 +591,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B6">
         <v>340</v>
@@ -607,7 +607,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B8">
         <v>360</v>
@@ -615,7 +615,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B9">
         <v>165</v>
@@ -623,7 +623,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B10">
         <v>550</v>
@@ -631,7 +631,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B11">
         <v>30</v>
@@ -639,7 +639,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B12">
         <v>220</v>
@@ -647,7 +647,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B13">
         <v>87</v>
@@ -663,7 +663,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B15">
         <v>180</v>
@@ -671,218 +671,218 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="B16">
-        <v>60</v>
+        <v>70</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="B17">
-        <v>70</v>
+        <v>410</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="B18">
-        <v>410</v>
+        <v>250</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="B19">
-        <v>250</v>
+        <v>550</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="B20">
-        <v>550</v>
+        <v>42</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="B21">
-        <v>42</v>
+        <v>110</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="B22">
-        <v>110</v>
+        <v>100</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="B23">
-        <v>100</v>
+        <v>600</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="B24">
-        <v>600</v>
+        <v>884</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="B25">
-        <v>884</v>
+        <v>220</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>220</v>
+        <v>230</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
+        <v>5</v>
+      </c>
+      <c r="B27">
         <v>31</v>
-      </c>
-      <c r="B27">
-        <v>230</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B28">
-        <v>31</v>
+        <v>18</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>3</v>
+        <v>37</v>
       </c>
       <c r="B29">
-        <v>18</v>
+        <v>130</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>130</v>
+        <v>40</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="B31">
-        <v>40</v>
+        <v>130</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="B32">
-        <v>130</v>
+        <v>350</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B33">
-        <v>350</v>
+        <v>120</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="B34">
-        <v>120</v>
+        <v>40</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="B35">
-        <v>40</v>
+        <v>600</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="B36">
-        <v>600</v>
+        <v>50</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B37">
-        <v>50</v>
+        <v>70</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="B38">
-        <v>70</v>
+        <v>50</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="B39">
-        <v>50</v>
+        <v>200</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="B40">
-        <v>200</v>
+        <v>240</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="B41">
-        <v>240</v>
+        <v>550</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="B42">
-        <v>550</v>
+        <v>155</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.35">
@@ -895,55 +895,55 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="B44">
-        <v>155</v>
+        <v>150</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="B45">
-        <v>150</v>
+        <v>15</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B46">
-        <v>15</v>
+        <v>720</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="B47">
-        <v>720</v>
+        <v>370</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="B48">
-        <v>370</v>
+        <v>270</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="B49">
-        <v>270</v>
+        <v>300</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B49">
-    <sortCondition ref="A2:A49"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B48">
+    <sortCondition ref="A2:A48"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
